--- a/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
+    <t>1001|20;1002|20</t>
   </si>
   <si>
     <t>Equip1</t>
@@ -85,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -106,42 +106,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,14 +122,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -171,9 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,9 +159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,11 +181,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,16 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,61 +264,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,121 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,37 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,7 +486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,8 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +526,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,20 +1077,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -31,7 +31,10 @@
     <t>升级条件</t>
   </si>
   <si>
-    <t>解锁武器</t>
+    <t>解锁巡逻位</t>
+  </si>
+  <si>
+    <t>解锁箭塔</t>
   </si>
   <si>
     <t>A</t>
@@ -55,28 +58,28 @@
     <t>UpgradePreconditions</t>
   </si>
   <si>
-    <t>UnlockEquip</t>
-  </si>
-  <si>
-    <t>1001|20;1002|20</t>
-  </si>
-  <si>
-    <t>Equip1</t>
-  </si>
-  <si>
-    <t>Equip2</t>
-  </si>
-  <si>
-    <t>Equip3</t>
-  </si>
-  <si>
-    <t>Equip4</t>
-  </si>
-  <si>
-    <t>Equip5</t>
-  </si>
-  <si>
-    <t>Equip6</t>
+    <t>UnlockDefendant</t>
+  </si>
+  <si>
+    <t>UnlockTower</t>
+  </si>
+  <si>
+    <t>1001|80;1002|40</t>
+  </si>
+  <si>
+    <t>1003|10;1002|200</t>
+  </si>
+  <si>
+    <t>1003|80;1002|800</t>
+  </si>
+  <si>
+    <t>1003|600;1002|4000</t>
+  </si>
+  <si>
+    <t>1003|4000;1002|30000</t>
+  </si>
+  <si>
+    <t>1003|15000;1004|8000</t>
   </si>
 </sst>
 </file>
@@ -86,8 +89,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,12 +109,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -120,8 +176,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -136,114 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,26 +494,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -570,16 +549,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,25 +1075,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,56 +1110,68 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1163,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>500</v>
@@ -1171,8 +1187,8 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1180,16 +1196,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
+      <c r="E6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1197,16 +1213,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
+      <c r="E7" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1214,16 +1230,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
+      <c r="E8" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1231,16 +1247,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>65000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
+      <c r="E9" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1248,16 +1264,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>500</v>
+        <v>150000</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
+      <c r="E10" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
@@ -88,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,24 +108,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,21 +121,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,17 +132,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,46 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +207,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -244,9 +222,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,127 +267,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,18 +441,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,36 +448,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,13 +494,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,56 +563,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1080,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1185,13 +1185,13 @@
         <v>500</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1202,10 +1202,13 @@
         <v>1600</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1219,13 +1222,13 @@
         <v>4000</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1236,10 +1239,13 @@
         <v>18000</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1253,7 +1259,7 @@
         <v>65000</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
@@ -1270,7 +1276,7 @@
         <v>150000</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -67,19 +67,22 @@
     <t>1001|80;1002|40</t>
   </si>
   <si>
-    <t>1003|10;1002|200</t>
-  </si>
-  <si>
-    <t>1003|80;1002|800</t>
-  </si>
-  <si>
-    <t>1003|600;1002|4000</t>
-  </si>
-  <si>
-    <t>1003|4000;1002|30000</t>
-  </si>
-  <si>
-    <t>1003|15000;1004|8000</t>
+    <t>主石</t>
+  </si>
+  <si>
+    <t>1003|10;1002|120</t>
+  </si>
+  <si>
+    <t>1003|80;1002|400</t>
+  </si>
+  <si>
+    <t>1003|360;1002|1800</t>
+  </si>
+  <si>
+    <t>1003|1600;1002|8000</t>
+  </si>
+  <si>
+    <t>1003|8000;1004|4000</t>
   </si>
 </sst>
 </file>
@@ -87,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,19 +111,78 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,80 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -222,31 +210,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +270,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,37 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,127 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +479,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -494,17 +542,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,57 +576,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,137 +594,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,6 +732,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1075,19 +1082,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
@@ -1174,7 +1181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1190,13 +1197,22 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>1600</v>
@@ -1210,13 +1226,22 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>240</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>4000</v>
@@ -1227,13 +1252,22 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>800</v>
+      </c>
+      <c r="K7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>18000</v>
@@ -1247,13 +1281,22 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K8" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>65000</v>
@@ -1264,13 +1307,22 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>150000</v>
@@ -1281,11 +1333,75 @@
       <c r="E10" s="2">
         <v>6</v>
       </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="8:9">
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="8:9">
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="8:9">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="8:9">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="8:9">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A5"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
@@ -70,19 +70,19 @@
     <t>主石</t>
   </si>
   <si>
-    <t>1003|10;1002|120</t>
-  </si>
-  <si>
-    <t>1003|80;1002|400</t>
-  </si>
-  <si>
-    <t>1003|360;1002|1800</t>
-  </si>
-  <si>
-    <t>1003|1600;1002|8000</t>
-  </si>
-  <si>
-    <t>1003|8000;1004|4000</t>
+    <t>1003|50;1002|120</t>
+  </si>
+  <si>
+    <t>1003|160;1002|400</t>
+  </si>
+  <si>
+    <t>1003|750;1002|1800</t>
+  </si>
+  <si>
+    <t>1003|3200;1002|8000</t>
+  </si>
+  <si>
+    <t>1003|16000;1004|4000</t>
   </si>
 </sst>
 </file>
@@ -90,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -126,67 +126,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -194,9 +133,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,31 +219,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,17 +479,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +510,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,60 +576,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,7 +1087,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1233,7 +1233,7 @@
         <v>240</v>
       </c>
       <c r="K6" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1259,7 +1259,7 @@
         <v>800</v>
       </c>
       <c r="K7" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1288,7 +1288,7 @@
         <v>3600</v>
       </c>
       <c r="K8" s="2">
-        <v>360</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1314,7 +1314,7 @@
         <v>16000</v>
       </c>
       <c r="K9" s="2">
-        <v>1600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2">
-        <v>8000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="22" spans="8:9">

--- a/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30250" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,8 +90,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -118,8 +118,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,108 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +254,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -270,91 +270,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,85 +426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,19 +482,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,24 +529,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,26 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,21 +1087,21 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.25454545454545" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7545454545455" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>500</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>

--- a/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30250" windowHeight="11040"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>1003|750;1002|1800</t>
   </si>
   <si>
-    <t>1003|3200;1002|8000</t>
-  </si>
-  <si>
-    <t>1003|16000;1004|4000</t>
+    <t>1003|3200;1002|6000</t>
+  </si>
+  <si>
+    <t>1003|10000;1004|8000</t>
   </si>
 </sst>
 </file>
@@ -112,105 +112,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,24 +201,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +247,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -270,13 +270,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,61 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,31 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,67 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,49 +479,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -548,6 +515,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -562,17 +544,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,21 +1087,21 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.25454545454545" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.25833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.8727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7583333333333" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityPatrolRoom.xlsx
@@ -64,25 +64,25 @@
     <t>UnlockTower</t>
   </si>
   <si>
-    <t>1001|80;1002|40</t>
+    <t>1001|150;1002|80</t>
   </si>
   <si>
     <t>主石</t>
   </si>
   <si>
-    <t>1003|50;1002|120</t>
-  </si>
-  <si>
-    <t>1003|160;1002|400</t>
-  </si>
-  <si>
-    <t>1003|750;1002|1800</t>
-  </si>
-  <si>
-    <t>1003|3200;1002|6000</t>
-  </si>
-  <si>
-    <t>1003|10000;1004|8000</t>
+    <t>1003|100;1002|380</t>
+  </si>
+  <si>
+    <t>1003|300;1002|650</t>
+  </si>
+  <si>
+    <t>1003|1000;1002|1500</t>
+  </si>
+  <si>
+    <t>1003|1800;1002|2500</t>
+  </si>
+  <si>
+    <t>1003|2600;1004|1800</t>
   </si>
 </sst>
 </file>
@@ -90,8 +90,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -111,6 +111,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -118,16 +141,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -135,30 +202,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,84 +240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,31 +270,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,91 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,55 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,37 +479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,16 +510,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +557,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,137 +594,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,6 +736,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1203,8 +1206,8 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <v>80</v>
+      <c r="J5" s="5">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1215,7 +1218,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1229,11 +1232,11 @@
       <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <v>240</v>
+      <c r="J6" s="5">
+        <v>550</v>
       </c>
       <c r="K6" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1244,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1255,11 +1258,11 @@
       <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
-        <v>800</v>
+      <c r="J7" s="5">
+        <v>1300</v>
       </c>
       <c r="K7" s="2">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1270,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>18000</v>
+        <v>3600</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -1281,14 +1284,14 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>3600</v>
+      <c r="J8" s="5">
+        <v>3000</v>
       </c>
       <c r="K8" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1299,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>65000</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -1310,11 +1313,11 @@
       <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
-        <v>16000</v>
+      <c r="J9" s="5">
+        <v>5000</v>
       </c>
       <c r="K9" s="2">
-        <v>3200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1325,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
@@ -1338,70 +1341,113 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="3"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="3"/>
+    <row r="23" spans="6:9">
+      <c r="F23" s="3"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="3"/>
+    <row r="24" spans="6:9">
+      <c r="F24" s="3"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="8:9">
-      <c r="H25" s="3"/>
+    <row r="25" spans="5:9">
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="8:9">
-      <c r="H26" s="3"/>
+    <row r="26" spans="6:9">
+      <c r="F26" s="3"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="8:9">
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="9:9">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="9:9">
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="9:9">
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="9:9">
-      <c r="I37" s="3"/>
+    <row r="27" spans="6:9">
+      <c r="F27" s="3"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" s="3"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="6:9">
+      <c r="F34" s="3"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="6:9">
+      <c r="F35" s="3"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="6:9">
+      <c r="F36" s="3"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="I37" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="E16:F40">
+    <sortCondition ref="E16"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
